--- a/db_1.xlsx
+++ b/db_1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="833">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -343,9 +343,6 @@
     <t xml:space="preserve">20 GB </t>
   </si>
   <si>
-    <t xml:space="preserve">	4 GB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Quad-Core CPU</t>
   </si>
   <si>
@@ -1765,18 +1762,27 @@
     <t xml:space="preserve">32 GB</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wallpapercave.com/wp/a7sZV4t.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prototype 2</t>
   </si>
   <si>
     <t xml:space="preserve">31 GB</t>
   </si>
   <si>
+    <t xml:space="preserve">https://cdn.wallpapersafari.com/74/3/uCtr0S.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Witcher </t>
   </si>
   <si>
     <t xml:space="preserve">rpg</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wallpaper.dog/large/976610.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">8.6</t>
   </si>
   <si>
@@ -1786,6 +1792,9 @@
     <t xml:space="preserve">29 GB</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wallpaperaccess.com/full/2081430.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Witcher 3: Wild Hunt</t>
   </si>
   <si>
@@ -1795,6 +1804,9 @@
     <t xml:space="preserve">28 GB</t>
   </si>
   <si>
+    <t xml:space="preserve">https://cdn.wallpapersafari.com/54/46/7agXeC.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Elder Scrolls III: Morrowind</t>
   </si>
   <si>
@@ -1804,21 +1816,33 @@
     <t xml:space="preserve">27 GB</t>
   </si>
   <si>
+    <t xml:space="preserve">https://cdn.wallpapersafari.com/2/47/dZAyHK.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Elder Scrolls IV: Oblivion</t>
   </si>
   <si>
     <t xml:space="preserve">26 GB</t>
   </si>
   <si>
+    <t xml:space="preserve">https://images8.alphacoders.com/358/thumb-1920-358448.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">The Elder Scrolls V: Skyrim</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wallpaper.dog/large/10853852.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diablo </t>
   </si>
   <si>
     <t xml:space="preserve">Blizzard North</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wallpaperaccess.com/full/5413429.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diablo 2</t>
   </si>
   <si>
@@ -1828,6 +1852,9 @@
     <t xml:space="preserve">23 GB</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wallpaperaccess.com/full/5413455.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Diablo 3</t>
   </si>
   <si>
@@ -1837,33 +1864,54 @@
     <t xml:space="preserve">22 GB</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wallpapercave.com/wp/6IyEN0s.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Metro 2033</t>
   </si>
   <si>
     <t xml:space="preserve">4A Games</t>
   </si>
   <si>
+    <t xml:space="preserve">https://img.wallpapersafari.com/desktop/1680/1050/66/30/B8yJMA.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Metro: Last Light</t>
   </si>
   <si>
     <t xml:space="preserve">19 GB</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.10wallpaper.com/wallpaper/1920x1080/1306/Metro_Last_Light_Game_HD_Desktop_Wallpaper_19_1920x1080.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Metro: Exodus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wallpaperaccess.com/full/2130276.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stalker: Shadow of Chernobyl</t>
   </si>
   <si>
     <t xml:space="preserve">GSC Game World</t>
   </si>
   <si>
+    <t xml:space="preserve">https://i.trbna.com/preset/wysiwyg/3/59/28194287c11ea8effc00fb2d7bd36.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stalker: Clear Sky</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wpapers.ru/wallpapers/games/STALKER/10471/1920x1080_S.T.A.L.K.E.R.:-Чистое-небо.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Stalker: Call of Pripyat</t>
   </si>
   <si>
+    <t xml:space="preserve">https://static.wikia.nocookie.net/modistalker/images/4/40/Stalker_call_of_pripyat_poster_game.png/revision/latest?cb=20140308141348&amp;path-prefix=ru</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dead Island</t>
   </si>
   <si>
@@ -1873,12 +1921,18 @@
     <t xml:space="preserve">14 GB</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wallpapercave.com/wp/wp2991025.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Escape Dead Island</t>
   </si>
   <si>
     <t xml:space="preserve">Fatshark</t>
   </si>
   <si>
+    <t xml:space="preserve">https://images2.alphacoders.com/688/thumb-1920-688154.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">PC Building Simulator</t>
   </si>
   <si>
@@ -1889,6 +1943,9 @@
   </si>
   <si>
     <t xml:space="preserve"> GeForce GTX 660 2 GB/Radeon R9 285 2 GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i.3djuegos.com/juegos/15590/pc_building_simulator/fotos/ficha/pc_building_simulator-4938606.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Microsoft Flight Simulator 2020</t>
@@ -1913,6 +1970,9 @@
     <t xml:space="preserve">NVIDIA GTX 970/AMD Radeon RX 590</t>
   </si>
   <si>
+    <t xml:space="preserve">https://store-images.s-microsoft.com/image/apps.18577.14377492558798445.88bfc14d-d28c-473e-8db7-e23575b6843f.58f05c59-a18d-44c3-8c55-5e31e90baddb</t>
+  </si>
+  <si>
     <t xml:space="preserve">Microsoft Flight Simulator X</t>
   </si>
   <si>
@@ -1929,6 +1989,9 @@
     <t xml:space="preserve">Windows XP (SP2)</t>
   </si>
   <si>
+    <t xml:space="preserve">https://pictures-uganda.jijistatic.com/2899677_b4rgsv_1600x900.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">A way out</t>
   </si>
   <si>
@@ -1947,6 +2010,9 @@
     <t xml:space="preserve">NVIDIA GTX 960/AMD R9 290</t>
   </si>
   <si>
+    <t xml:space="preserve">https://wallpaperaccess.com/full/5282602.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unravel </t>
   </si>
   <si>
@@ -1959,6 +2025,9 @@
     <t xml:space="preserve">512 MB, NVIDIA GeForce GT 450/AMD Radeon HD 5750 </t>
   </si>
   <si>
+    <t xml:space="preserve">https://images4.alphacoders.com/610/thumb-1920-610586.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Unravel 2</t>
   </si>
   <si>
@@ -1974,6 +2043,9 @@
     <t xml:space="preserve">ATI Radeon R9 270/Nvidia GTX 670</t>
   </si>
   <si>
+    <t xml:space="preserve">https://images2.alphacoders.com/926/thumb-1920-926919.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">It takes two</t>
   </si>
   <si>
@@ -1992,6 +2064,9 @@
     <t xml:space="preserve">AMD R9 290X/Nvidia GTX 980</t>
   </si>
   <si>
+    <t xml:space="preserve">https://itc.ua/wp-content/uploads/2021/04/ittakestwo.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portal</t>
   </si>
   <si>
@@ -2007,6 +2082,9 @@
     <t xml:space="preserve">GeForce FX 5500/Radeon 9500</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w.wallha.com/ws/13/MW7FDxnT.jpg</t>
+  </si>
+  <si>
     <t xml:space="preserve">Portal 2</t>
   </si>
   <si>
@@ -2017,6 +2095,9 @@
   </si>
   <si>
     <t xml:space="preserve"> AMD Radeon HD 4550/NVIDIA GeForce 8600 GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.teahub.io/photos/full/349-3499704_view-media-portal-2-title-screen.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Terraria</t>
@@ -2126,6 +2207,9 @@
   </si>
   <si>
     <t xml:space="preserve">100 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentium 3</t>
   </si>
   <si>
     <t xml:space="preserve">64 MB, XyeCoc G2 </t>
@@ -2446,16 +2530,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_₴_-;\-* #,##0.00_₴_-;_-* \-??_₴_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="\ * #,##0.00&quot;   &quot;;\-* #,##0.00&quot;   &quot;;\ * \-#&quot;   &quot;;\ @\ "/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2495,13 +2579,13 @@
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Roboto"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2519,19 +2603,13 @@
       <sz val="10"/>
       <name val="Merriweather"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="&quot;Motiva Sans&quot;"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2551,7 +2629,7 @@
       <sz val="10"/>
       <name val="Open-sans"/>
       <family val="0"/>
-      <charset val="1"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2567,15 +2645,8 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2591,13 +2662,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor rgb="FF008080"/>
+        <bgColor rgb="FF00A933"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF9F9F9"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
   </fills>
@@ -2668,7 +2745,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="60">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2686,18 +2763,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2793,15 +2858,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2825,7 +2886,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2833,7 +2894,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2841,15 +2902,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2861,15 +2918,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2877,7 +2930,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2893,7 +2950,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2905,15 +2966,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="5" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2938,7 +3007,7 @@
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -2995,17 +3064,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V225"/>
+  <dimension ref="A1:V226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B164" activeCellId="0" sqref="B164"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A106" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O144" activeCellId="0" sqref="O125:O144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="30.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="3" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="14.81"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="13" style="1" width="14.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="14.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="17" style="3" width="14.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="14.43"/>
@@ -3057,17 +3131,12 @@
       <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -3079,7 +3148,7 @@
       <c r="C2" s="4" t="n">
         <v>2003</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -3110,16 +3179,9 @@
         <v>28</v>
       </c>
       <c r="N2" s="4"/>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -3131,7 +3193,7 @@
       <c r="C3" s="4" t="n">
         <v>2004</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -3162,16 +3224,9 @@
         <v>28</v>
       </c>
       <c r="N3" s="4"/>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
@@ -3183,7 +3238,7 @@
       <c r="C4" s="4" t="n">
         <v>2005</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -3201,10 +3256,10 @@
       <c r="I4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L4" s="4" t="s">
@@ -3214,16 +3269,9 @@
         <v>28</v>
       </c>
       <c r="N4" s="4"/>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
@@ -3235,10 +3283,10 @@
       <c r="C5" s="4" t="n">
         <v>2006</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="4" t="s">
@@ -3266,16 +3314,9 @@
         <v>53</v>
       </c>
       <c r="N5" s="4"/>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
@@ -3287,7 +3328,7 @@
       <c r="C6" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -3302,7 +3343,7 @@
       <c r="H6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="7" t="s">
         <v>59</v>
       </c>
       <c r="J6" s="4" t="s">
@@ -3318,16 +3359,9 @@
         <v>62</v>
       </c>
       <c r="N6" s="4"/>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
@@ -3339,7 +3373,7 @@
       <c r="C7" s="4" t="n">
         <v>2009</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -3370,16 +3404,9 @@
         <v>71</v>
       </c>
       <c r="N7" s="4"/>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
@@ -3391,7 +3418,7 @@
       <c r="C8" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="4" t="s">
@@ -3422,16 +3449,9 @@
         <v>71</v>
       </c>
       <c r="N8" s="4"/>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
@@ -3443,7 +3463,7 @@
       <c r="C9" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -3474,16 +3494,9 @@
         <v>90</v>
       </c>
       <c r="N9" s="4"/>
-      <c r="O9" s="9" t="s">
+      <c r="O9" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
@@ -3495,7 +3508,7 @@
       <c r="C10" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -3526,16 +3539,9 @@
         <v>100</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="9" t="s">
+      <c r="O10" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -3547,7 +3553,7 @@
       <c r="C11" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -3566,32 +3572,25 @@
         <v>106</v>
       </c>
       <c r="J11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="L11" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="4" t="s">
+      <c r="M11" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M11" s="4" t="s">
+      <c r="N11" s="4"/>
+      <c r="O11" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
     </row>
     <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>84</v>
@@ -3599,380 +3598,327 @@
       <c r="C12" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="I12" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>117</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="L12" s="4" t="s">
+      <c r="M12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M12" s="4" t="s">
+      <c r="N12" s="4"/>
+      <c r="O12" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K13" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="L13" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="M13" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F14" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="M14" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N14" s="4"/>
-      <c r="O14" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="I15" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="J15" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="K15" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="L15" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="M15" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N15" s="4"/>
-      <c r="O15" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>2000</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
+      <c r="O16" s="6" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C18" s="16" t="n">
-        <v>2017</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="I18" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="J18" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="J18" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K18" s="4" t="s">
+      <c r="L18" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="M18" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C19" s="13" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>149</v>
-      </c>
-      <c r="C19" s="16" t="n">
-        <v>2019</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>150</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="H19" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I19" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I19" s="4" t="s">
+      <c r="J19" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K19" s="4" t="s">
+      <c r="L19" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="M19" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N19" s="4"/>
-      <c r="O19" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B20" s="15" t="s">
         <v>165</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>166</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>150</v>
+      <c r="D20" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F20" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="H20" s="16" t="s">
         <v>168</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>169</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>79</v>
@@ -3981,50 +3927,43 @@
         <v>70</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="L20" s="4" t="s">
-        <v>168</v>
-      </c>
       <c r="M20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="N20" s="4"/>
-      <c r="O20" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>166</v>
+        <v>171</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>150</v>
+      <c r="D21" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F21" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>169</v>
+      <c r="H21" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>89</v>
@@ -4032,489 +3971,422 @@
       <c r="J21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="K21" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="M21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="M21" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="N21" s="4"/>
-      <c r="O21" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="7"/>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>166</v>
+        <v>177</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>150</v>
+      <c r="D22" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F22" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>100</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K22" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="M22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N22" s="4"/>
-      <c r="O22" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>166</v>
+        <v>183</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>150</v>
+      <c r="D23" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="H23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" s="4" t="s">
+      <c r="J23" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J23" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="L23" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="L23" s="20" t="s">
+      <c r="M23" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23" s="4"/>
+      <c r="O23" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N23" s="4"/>
-      <c r="O23" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>191</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>192</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>193</v>
+      <c r="D24" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F24" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" s="4" t="s">
         <v>194</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>79</v>
       </c>
       <c r="K24" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="M24" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M24" s="4" t="s">
+      <c r="N24" s="4"/>
+      <c r="O24" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>201</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>202</v>
       </c>
       <c r="C25" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="5"/>
       <c r="E25" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F25" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="I25" s="22" t="s">
+      <c r="I25" s="19" t="s">
         <v>70</v>
       </c>
       <c r="J25" s="4" t="s">
         <v>79</v>
       </c>
       <c r="K25" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="M25" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N25" s="4"/>
+      <c r="O25" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N25" s="4"/>
-      <c r="O25" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="C27" s="4" t="n">
         <v>2005</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>211</v>
+      <c r="D27" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="24" t="s">
+      <c r="F27" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G27" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="G27" s="4" t="s">
+      <c r="H27" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="H27" s="24" t="s">
+      <c r="I27" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="I27" s="25" t="s">
-        <v>215</v>
-      </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>28</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
+      <c r="O27" s="6" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C28" s="4" t="n">
         <v>2010</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>211</v>
+      <c r="D28" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="26" t="s">
+      <c r="F28" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>219</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>220</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="L28" s="27" t="s">
+      <c r="M28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N28" s="4"/>
-      <c r="O28" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>211</v>
+      <c r="D29" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="H29" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I29" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="J29" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="K29" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29" s="27" t="s">
+      <c r="M29" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N29" s="4"/>
-      <c r="O29" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="7"/>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>211</v>
+      <c r="D30" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="H30" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="J30" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="J30" s="28" t="s">
+      <c r="K30" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="L30" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="K30" s="27" t="s">
-        <v>221</v>
-      </c>
-      <c r="L30" s="4" t="s">
+      <c r="M30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="9" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="s">
+      <c r="B31" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>237</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>211</v>
+      <c r="D31" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>205</v>
+        <v>237</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>93</v>
@@ -4523,752 +4395,646 @@
         <v>70</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L31" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N31" s="4"/>
-      <c r="O31" s="9" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
+      <c r="B32" s="4" t="s">
         <v>241</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>242</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E32" s="29" t="s">
+      <c r="D32" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E32" s="26" t="s">
         <v>79</v>
       </c>
       <c r="F32" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" s="4" t="s">
+      <c r="J32" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="J32" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="K32" s="27" t="s">
+      <c r="L32" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="M32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="M32" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="N32" s="4"/>
-      <c r="O32" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="7"/>
-      <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>251</v>
+      <c r="D34" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F34" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G34" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="H34" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K34" s="4" t="s">
+      <c r="L34" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="L34" s="4" t="s">
-        <v>255</v>
-      </c>
       <c r="M34" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
+        <v>255</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>251</v>
+      <c r="D35" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F35" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="H35" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="J35" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>262</v>
-      </c>
       <c r="M35" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
+        <v>262</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="E36" s="30" t="s">
+      <c r="D36" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F36" s="30" t="s">
+      <c r="F36" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G36" s="30" t="s">
-        <v>259</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="J36" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>266</v>
-      </c>
-      <c r="L36" s="30" t="s">
-        <v>262</v>
+      <c r="L36" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N36" s="4"/>
       <c r="O36" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
+        <v>266</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>268</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>269</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F37" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G37" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="H37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K37" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L37" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="L37" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="M37" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="7"/>
-      <c r="S37" s="7"/>
-      <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
+        <v>273</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D38" s="8"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F38" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="H38" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K38" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="L38" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="M38" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
+        <v>275</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F39" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G39" s="4" t="s">
-        <v>271</v>
-      </c>
       <c r="H39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="7"/>
-      <c r="S39" s="7"/>
-      <c r="T39" s="7"/>
-      <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="31" t="s">
+      <c r="B40" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>281</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F40" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G40" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G40" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="H40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K40" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="L40" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="L40" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="M40" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
+        <v>283</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>285</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>286</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F41" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G41" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G41" s="4" t="s">
+      <c r="H41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I41" s="4" t="s">
         <v>288</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>289</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K41" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="L41" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="M41" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="7"/>
-      <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
+        <v>289</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>292</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="D42" s="8"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F42" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G42" s="4" t="s">
+      <c r="H42" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K42" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="L42" s="4" t="s">
-        <v>297</v>
-      </c>
       <c r="M42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
+        <v>297</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="D43" s="8"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F43" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G43" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="G43" s="4" t="s">
-        <v>294</v>
-      </c>
       <c r="H43" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K43" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="L43" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="M43" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="P43" s="5"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="7"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="7"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
+        <v>302</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F44" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G44" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>169</v>
+      <c r="H44" s="17" t="s">
+        <v>168</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>79</v>
       </c>
       <c r="K44" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="L44" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="M44" s="4" t="s">
         <v>309</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>310</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
+        <v>310</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="D45" s="8"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F45" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>71</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>79</v>
       </c>
       <c r="K45" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="L45" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="M45" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
+        <v>318</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="11"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B47" s="29" t="s">
         <v>320</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>321</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="D47" s="8"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F47" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G47" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="G47" s="4" t="s">
+      <c r="H47" s="17" t="s">
         <v>323</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>324</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>78</v>
@@ -5277,2141 +5043,1688 @@
         <v>70</v>
       </c>
       <c r="K47" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="L47" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="L47" s="4" t="s">
-        <v>326</v>
-      </c>
       <c r="M47" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="7"/>
-      <c r="S47" s="7"/>
-      <c r="T47" s="7"/>
-      <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
+        <v>326</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>321</v>
+        <v>327</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>320</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="D48" s="8"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="4" t="s">
         <v>69</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G48" s="4" t="s">
-        <v>330</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K48" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="L48" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="L48" s="4" t="s">
-        <v>332</v>
-      </c>
       <c r="M48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
+        <v>332</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B49" s="29" t="s">
         <v>334</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>335</v>
       </c>
       <c r="C49" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="D49" s="8"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F49" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G49" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G49" s="4" t="s">
+      <c r="H49" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="K49" s="4" t="s">
+      <c r="L49" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="L49" s="4" t="s">
-        <v>339</v>
-      </c>
       <c r="M49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="7"/>
-      <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="11"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="15"/>
-      <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="s">
+      <c r="B51" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="C51" s="30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="C51" s="34" t="n">
-        <v>2000</v>
-      </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="27" t="s">
+      <c r="F51" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="F51" s="27" t="s">
+      <c r="G51" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="G51" s="27" t="s">
+      <c r="H51" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="H51" s="27" t="s">
+      <c r="I51" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="I51" s="27" t="s">
+      <c r="J51" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="J51" s="27" t="s">
+      <c r="K51" s="24" t="s">
         <v>348</v>
       </c>
-      <c r="K51" s="27" t="s">
+      <c r="L51" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="L51" s="27" t="s">
-        <v>350</v>
-      </c>
-      <c r="M51" s="27" t="s">
-        <v>346</v>
+      <c r="M51" s="24" t="s">
+        <v>345</v>
       </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27" t="s">
+      <c r="B52" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="C52" s="30" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="F52" s="24" t="s">
         <v>353</v>
       </c>
-      <c r="C52" s="34" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="36" t="s">
-        <v>348</v>
-      </c>
-      <c r="F52" s="27" t="s">
+      <c r="G52" s="24" t="s">
         <v>354</v>
       </c>
-      <c r="G52" s="27" t="s">
+      <c r="H52" s="24" t="s">
         <v>355</v>
       </c>
-      <c r="H52" s="27" t="s">
+      <c r="I52" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="I52" s="27" t="s">
+      <c r="J52" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="J52" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K52" s="27" t="s">
+      <c r="L52" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="L52" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="M52" s="27" t="s">
-        <v>356</v>
+      <c r="M52" s="24" t="s">
+        <v>355</v>
       </c>
       <c r="N52" s="4"/>
       <c r="O52" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="24" t="s">
         <v>360</v>
       </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27" t="s">
+      <c r="B53" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C53" s="30" t="n">
+        <v>2004</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="24" t="s">
         <v>361</v>
       </c>
-      <c r="B53" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="C53" s="34" t="n">
-        <v>2004</v>
-      </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="G53" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="H53" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="I53" s="27" t="s">
+      <c r="G53" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="H53" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="I53" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="J53" s="27" t="s">
+      <c r="J53" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="K53" s="27" t="s">
-        <v>362</v>
-      </c>
-      <c r="L53" s="27" t="s">
-        <v>359</v>
-      </c>
-      <c r="M53" s="27" t="s">
-        <v>356</v>
+      <c r="K53" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="L53" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="M53" s="24" t="s">
+        <v>355</v>
       </c>
       <c r="N53" s="4"/>
       <c r="O53" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="24" t="s">
         <v>363</v>
       </c>
-      <c r="P53" s="5"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="7"/>
-      <c r="S53" s="7"/>
-      <c r="T53" s="7"/>
-      <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="27" t="s">
+      <c r="B54" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C54" s="30" t="n">
+        <v>2006</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="B54" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="C54" s="34" t="n">
-        <v>2006</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="F54" s="36" t="s">
+      <c r="G54" s="24" t="s">
         <v>365</v>
       </c>
-      <c r="G54" s="27" t="s">
+      <c r="H54" s="24" t="s">
         <v>366</v>
       </c>
-      <c r="H54" s="27" t="s">
+      <c r="I54" s="24" t="s">
         <v>367</v>
       </c>
-      <c r="I54" s="27" t="s">
+      <c r="J54" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="K54" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="J54" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="K54" s="36" t="s">
+      <c r="L54" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="L54" s="27" t="s">
-        <v>370</v>
-      </c>
-      <c r="M54" s="27" t="s">
-        <v>367</v>
+      <c r="M54" s="24" t="s">
+        <v>366</v>
       </c>
       <c r="N54" s="4"/>
       <c r="O54" s="4" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="24" t="s">
         <v>371</v>
       </c>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="27" t="s">
+      <c r="B55" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C55" s="30" t="n">
+        <v>2012</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F55" s="24" t="s">
         <v>372</v>
       </c>
-      <c r="B55" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="C55" s="34" t="n">
-        <v>2012</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="F55" s="27" t="s">
+      <c r="G55" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="G55" s="27" t="s">
+      <c r="H55" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="H55" s="27" t="s">
+      <c r="I55" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="I55" s="27" t="s">
+      <c r="J55" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="K55" s="24" t="s">
         <v>376</v>
       </c>
-      <c r="J55" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="K55" s="27" t="s">
+      <c r="L55" s="24" t="s">
         <v>377</v>
       </c>
-      <c r="L55" s="27" t="s">
+      <c r="M55" s="24" t="s">
         <v>378</v>
-      </c>
-      <c r="M55" s="27" t="s">
-        <v>379</v>
       </c>
       <c r="N55" s="4"/>
       <c r="O55" s="4" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="27" t="s">
+      <c r="B56" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C56" s="30" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="B56" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="C56" s="34" t="n">
-        <v>2016</v>
-      </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="27" t="s">
+      <c r="G56" s="24"/>
+      <c r="H56" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="I56" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="J56" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F56" s="27" t="s">
+      <c r="K56" s="24" t="s">
         <v>382</v>
       </c>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="I56" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="J56" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="K56" s="27" t="s">
+      <c r="L56" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="L56" s="27" t="s">
+      <c r="M56" s="24" t="s">
         <v>384</v>
-      </c>
-      <c r="M56" s="27" t="s">
-        <v>385</v>
       </c>
       <c r="N56" s="4"/>
       <c r="O56" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="27" t="s">
+      <c r="B57" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C57" s="30" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F57" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="G57" s="24" t="s">
         <v>387</v>
       </c>
-      <c r="B57" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="C57" s="34" t="n">
-        <v>2018</v>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F57" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="G57" s="27" t="s">
+      <c r="H57" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="I57" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="H57" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="I57" s="27" t="s">
+      <c r="J57" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K57" s="24" t="s">
         <v>389</v>
       </c>
-      <c r="J57" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="K57" s="27" t="s">
+      <c r="L57" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="L57" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="M57" s="27" t="s">
-        <v>128</v>
+      <c r="M57" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="7"/>
-      <c r="S57" s="7"/>
-      <c r="T57" s="7"/>
-      <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
+        <v>391</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C58" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="27"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="27"/>
+      <c r="H58" s="24"/>
       <c r="I58" s="4"/>
-      <c r="J58" s="37"/>
+      <c r="J58" s="33"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="7"/>
-      <c r="S58" s="7"/>
-      <c r="T58" s="7"/>
-      <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
+        <v>393</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C59" s="4" t="n">
         <v>2012</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="27" t="s">
+      <c r="D59" s="5"/>
+      <c r="E59" s="24" t="s">
         <v>93</v>
       </c>
       <c r="F59" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="H59" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="G59" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H59" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="I59" s="4" t="s">
+      <c r="J59" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="J59" s="4" t="s">
-        <v>398</v>
-      </c>
       <c r="K59" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="L59" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="L59" s="4" t="s">
-        <v>318</v>
-      </c>
       <c r="M59" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="N59" s="4"/>
       <c r="O59" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="7"/>
-      <c r="S59" s="7"/>
-      <c r="T59" s="7"/>
-      <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
+        <v>398</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C60" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="27" t="s">
+      <c r="D60" s="5"/>
+      <c r="E60" s="24" t="s">
         <v>89</v>
       </c>
       <c r="F60" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="H60" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="H60" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="I60" s="4" t="s">
+      <c r="J60" s="34" t="s">
         <v>403</v>
       </c>
-      <c r="J60" s="38" t="s">
+      <c r="K60" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="L60" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="L60" s="4" t="s">
-        <v>406</v>
-      </c>
       <c r="M60" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N60" s="4"/>
       <c r="O60" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
+        <v>406</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="13"/>
-      <c r="N61" s="13"/>
-      <c r="O61" s="11"/>
-      <c r="P61" s="14"/>
-      <c r="Q61" s="15"/>
-      <c r="R61" s="13"/>
-      <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="8"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>408</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>409</v>
       </c>
       <c r="C62" s="4" t="n">
         <v>2002</v>
       </c>
       <c r="I62" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O62" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="M62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="7"/>
-      <c r="S62" s="7"/>
-      <c r="T62" s="7"/>
-      <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C63" s="4" t="n">
         <v>2006</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>413</v>
-      </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="7"/>
-      <c r="S63" s="7"/>
-      <c r="T63" s="7"/>
-      <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
+        <v>412</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C64" s="4" t="n">
         <v>2004</v>
       </c>
       <c r="I64" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O64" s="4" t="s">
         <v>415</v>
       </c>
-      <c r="M64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>416</v>
-      </c>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="7"/>
-      <c r="S64" s="7"/>
-      <c r="T64" s="7"/>
-      <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C65" s="4" t="n">
         <v>2005</v>
       </c>
       <c r="I65" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O65" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="M65" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>419</v>
-      </c>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="7"/>
-      <c r="S65" s="7"/>
-      <c r="T65" s="7"/>
-      <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C66" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="I66" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O66" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="M66" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O66" s="4" t="s">
-        <v>422</v>
-      </c>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C67" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="I67" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O67" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="M67" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O67" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="7"/>
-      <c r="S67" s="7"/>
-      <c r="T67" s="7"/>
-      <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C68" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="I68" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O68" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="7"/>
-      <c r="S68" s="7"/>
-      <c r="T68" s="7"/>
-      <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C69" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="I69" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O69" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O69" s="4" t="s">
-        <v>431</v>
-      </c>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="7"/>
-      <c r="S69" s="7"/>
-      <c r="T69" s="7"/>
-      <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C70" s="35" t="n">
+        <v>2016</v>
+      </c>
+      <c r="I70" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C70" s="39" t="n">
-        <v>2016</v>
-      </c>
-      <c r="I70" s="1" t="s">
+      <c r="M70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O70" s="4" t="s">
         <v>433</v>
       </c>
-      <c r="M70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O70" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C71" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="I71" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O71" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="M71" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O71" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="7"/>
-      <c r="S71" s="7"/>
-      <c r="T71" s="7"/>
-      <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C72" s="4" t="n">
         <v>2021</v>
       </c>
       <c r="I72" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O72" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="M72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O72" s="4" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="27" t="s">
         <v>440</v>
       </c>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7"/>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="31" t="s">
+      <c r="B73" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="C73" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O73" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="M73" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O73" s="40" t="s">
-        <v>444</v>
-      </c>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="B74" s="29" t="s">
         <v>445</v>
-      </c>
-      <c r="B74" s="33" t="s">
-        <v>446</v>
       </c>
       <c r="C74" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="I74" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O74" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="M74" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O74" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
-      <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>449</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>450</v>
       </c>
       <c r="C75" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="I75" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="M75" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O75" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="M75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O75" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="7"/>
-      <c r="S75" s="7"/>
-      <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C76" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="I76" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O76" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="M76" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O76" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7"/>
-      <c r="U76" s="7"/>
-      <c r="V76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="B77" s="29" t="s">
         <v>456</v>
-      </c>
-      <c r="B77" s="33" t="s">
-        <v>457</v>
       </c>
       <c r="C77" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="I77" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O77" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="M77" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O77" s="4" t="s">
-        <v>459</v>
-      </c>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="7"/>
-      <c r="S77" s="7"/>
-      <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>457</v>
+        <v>459</v>
+      </c>
+      <c r="B78" s="29" t="s">
+        <v>456</v>
       </c>
       <c r="C78" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="I78" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O78" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="M78" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>462</v>
-      </c>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="7"/>
-      <c r="S78" s="7"/>
-      <c r="T78" s="7"/>
-      <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>457</v>
+        <v>462</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>456</v>
       </c>
       <c r="C79" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="I79" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O79" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="M79" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O79" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="7"/>
-      <c r="S79" s="7"/>
-      <c r="T79" s="7"/>
-      <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="B80" s="29" t="s">
         <v>466</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>467</v>
       </c>
       <c r="C80" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="I80" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O80" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="M80" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>469</v>
-      </c>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C81" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="I81" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O81" s="4" t="s">
         <v>471</v>
       </c>
-      <c r="M81" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O81" s="4" t="s">
-        <v>472</v>
-      </c>
-      <c r="P81" s="5"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C82" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="I82" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O82" s="4" t="s">
         <v>474</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O82" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C83" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O83" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
+        <v>476</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>478</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>479</v>
       </c>
       <c r="C84" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="I84" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O84" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="M84" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O84" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="P84" s="5"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>482</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>483</v>
       </c>
       <c r="C85" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="I85" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O85" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="M85" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O85" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C86" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="I86" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O86" s="4" t="s">
         <v>487</v>
       </c>
-      <c r="M86" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O86" s="4" t="s">
-        <v>488</v>
-      </c>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>489</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>490</v>
       </c>
       <c r="C87" s="4" t="n">
         <v>1998</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
+        <v>490</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C88" s="4" t="n">
         <v>2004</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
+        <v>492</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>495</v>
       </c>
       <c r="C89" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="O89" s="4" t="s">
-        <v>496</v>
-      </c>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
+        <v>495</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C90" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>498</v>
-      </c>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
+        <v>497</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="13"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="13"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="15"/>
-      <c r="R91" s="13"/>
-      <c r="S91" s="13"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="11"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>499</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>500</v>
       </c>
       <c r="C92" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O92" s="4" t="s">
         <v>501</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>504</v>
       </c>
       <c r="C93" s="4" t="n">
         <v>2020</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E93" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F93" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="G93" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="J93" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="K93" s="4" t="s">
+      <c r="L93" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="L93" s="4" t="s">
-        <v>508</v>
-      </c>
       <c r="M93" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N93" s="4"/>
       <c r="O93" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="6"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
+        <v>508</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="B94" s="37" t="s">
         <v>510</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="C94" s="29" t="n">
+        <v>2002</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="C94" s="33" t="n">
-        <v>2002</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="M94" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O94" s="4" t="s">
         <v>513</v>
       </c>
-      <c r="M94" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O94" s="1" t="s">
-        <v>514</v>
-      </c>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="6"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>516</v>
       </c>
       <c r="C95" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I95" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O95" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="M95" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C96" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I96" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="M96" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O96" s="4" t="s">
         <v>520</v>
       </c>
-      <c r="M96" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O96" s="1" t="s">
-        <v>521</v>
-      </c>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="B97" s="29" t="s">
         <v>522</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>523</v>
       </c>
       <c r="C97" s="4" t="n">
         <v>2001</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O97" s="4" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>525</v>
-      </c>
-      <c r="B98" s="33" t="s">
-        <v>523</v>
+        <v>524</v>
+      </c>
+      <c r="B98" s="29" t="s">
+        <v>522</v>
       </c>
       <c r="C98" s="4" t="n">
         <v>2002</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O98" s="4" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>527</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>523</v>
+        <v>526</v>
+      </c>
+      <c r="B99" s="29" t="s">
+        <v>522</v>
       </c>
       <c r="C99" s="4" t="n">
         <v>2004</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I99" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O99" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="M99" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O99" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>530</v>
-      </c>
-      <c r="B100" s="33" t="s">
-        <v>523</v>
+        <v>529</v>
+      </c>
+      <c r="B100" s="29" t="s">
+        <v>522</v>
       </c>
       <c r="C100" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O100" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O100" s="4" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>532</v>
-      </c>
-      <c r="B101" s="33" t="s">
-        <v>523</v>
+        <v>531</v>
+      </c>
+      <c r="B101" s="29" t="s">
+        <v>522</v>
       </c>
       <c r="C101" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I101" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="M101" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O101" s="1" t="s">
-        <v>534</v>
-      </c>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="6"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C102" s="4" t="n">
         <v>2004</v>
       </c>
       <c r="D102" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="I102" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="M102" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O102" s="4" t="s">
         <v>537</v>
       </c>
-      <c r="M102" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O102" s="1" t="s">
+      <c r="P102" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="Q102" s="38" t="s">
         <v>538</v>
       </c>
-      <c r="P102" s="5" t="n">
-        <v>89</v>
-      </c>
-      <c r="Q102" s="42" t="s">
-        <v>539</v>
-      </c>
-      <c r="R102" s="7"/>
-      <c r="S102" s="7"/>
-      <c r="T102" s="7"/>
-      <c r="U102" s="7"/>
-      <c r="V102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="C103" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="E103" s="39" t="s">
+        <v>535</v>
+      </c>
+      <c r="E103" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="F103" s="39" t="s">
+      <c r="F103" s="35" t="s">
+        <v>541</v>
+      </c>
+      <c r="G103" s="35" t="s">
         <v>542</v>
       </c>
-      <c r="G103" s="39" t="s">
+      <c r="H103" s="35" t="s">
         <v>543</v>
       </c>
-      <c r="H103" s="39" t="s">
+      <c r="I103" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="J103" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="K103" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="I103" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="J103" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="K103" s="39" t="s">
+      <c r="L103" s="35" t="s">
         <v>545</v>
       </c>
-      <c r="L103" s="39" t="s">
+      <c r="M103" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O103" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="M103" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="O103" s="43" t="s">
-        <v>547</v>
-      </c>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="6"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C104" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I104" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O104" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="M104" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="6"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7"/>
-      <c r="T104" s="7"/>
-      <c r="U104" s="7"/>
-      <c r="V104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="B105" s="18" t="s">
         <v>551</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>552</v>
       </c>
       <c r="C105" s="4" t="n">
         <v>2014</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O105" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="6"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="7"/>
-      <c r="T105" s="7"/>
-      <c r="U105" s="7"/>
-      <c r="V105" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O105" s="4" t="s">
+        <v>552</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="B106" s="21" t="s">
-        <v>552</v>
+        <v>553</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>551</v>
       </c>
       <c r="C106" s="4" t="n">
         <v>2018</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I106" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O106" s="4" t="s">
         <v>555</v>
       </c>
-      <c r="M106" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="6"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C107" s="4" t="n">
         <v>2016</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I107" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O107" s="4" t="s">
         <v>558</v>
       </c>
-      <c r="M107" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O107" s="1" t="s">
-        <v>559</v>
-      </c>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="6"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C108" s="4" t="n">
         <v>2019</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I108" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O108" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="M108" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>562</v>
-      </c>
-      <c r="P108" s="5"/>
-      <c r="Q108" s="6"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B109" s="39" t="s">
         <v>563</v>
-      </c>
-      <c r="B109" s="44" t="s">
-        <v>564</v>
       </c>
       <c r="C109" s="4" t="n">
         <v>2001</v>
       </c>
       <c r="D109" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="I109" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="M109" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O109" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="M109" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="6"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="B110" s="44" t="s">
-        <v>564</v>
+        <v>567</v>
+      </c>
+      <c r="B110" s="39" t="s">
+        <v>563</v>
       </c>
       <c r="C110" s="4" t="n">
         <v>2003</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="6"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="B111" s="29" t="s">
         <v>570</v>
-      </c>
-      <c r="B111" s="33" t="s">
-        <v>571</v>
       </c>
       <c r="C111" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I111" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O111" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="M111" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="P111" s="5"/>
-      <c r="Q111" s="6"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="7"/>
-      <c r="V111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>575</v>
       </c>
       <c r="C112" s="4" t="n">
         <v>2017</v>
       </c>
       <c r="I112" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O112" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="M112" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="O112" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="6"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="7"/>
-      <c r="V112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>578</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>579</v>
       </c>
       <c r="C113" s="4" t="n">
         <v>2009</v>
       </c>
       <c r="I113" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O113" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="M113" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P113" s="5"/>
-      <c r="Q113" s="6"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="7"/>
-      <c r="V113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="s">
         <v>581</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C114" s="4" t="n">
         <v>2012</v>
@@ -7423,374 +6736,325 @@
         <v>79</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="6"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C115" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P115" s="5" t="n">
+        <v>127</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="P115" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="Q115" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="7"/>
+      <c r="Q115" s="3" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C116" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="J116" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="6"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>590</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="B117" s="21" t="s">
-        <v>589</v>
+        <v>591</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>592</v>
       </c>
       <c r="C117" s="4" t="n">
         <v>2015</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="6"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O117" s="4" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C118" s="4" t="n">
         <v>2002</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P118" s="5"/>
-      <c r="Q118" s="6"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
-      <c r="U118" s="7"/>
-      <c r="V118" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O118" s="4" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="C119" s="4" t="n">
         <v>2006</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="J119" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="6"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="7"/>
-      <c r="V119" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O119" s="4" t="s">
+        <v>601</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>596</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>592</v>
       </c>
       <c r="C120" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P120" s="5"/>
-      <c r="Q120" s="6"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="7"/>
-      <c r="T120" s="7"/>
-      <c r="U120" s="7"/>
-      <c r="V120" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O120" s="4" t="s">
+        <v>603</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="C121" s="4" t="n">
         <v>1996</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P121" s="5"/>
-      <c r="Q121" s="6"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O121" s="4" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="C122" s="4" t="n">
         <v>2000</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P122" s="5"/>
-      <c r="Q122" s="6"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="7"/>
-      <c r="T122" s="7"/>
-      <c r="U122" s="7"/>
-      <c r="V122" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O122" s="4" t="s">
+        <v>610</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
       <c r="C123" s="4" t="n">
         <v>2012</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="6"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="7"/>
-      <c r="T123" s="7"/>
-      <c r="U123" s="7"/>
-      <c r="V123" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O123" s="4" t="s">
+        <v>614</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="11"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="13"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
-      <c r="O124" s="13"/>
-      <c r="P124" s="14"/>
-      <c r="Q124" s="15"/>
-      <c r="R124" s="13"/>
-      <c r="S124" s="13"/>
-      <c r="T124" s="7"/>
-      <c r="U124" s="7"/>
-      <c r="V124" s="7"/>
+      <c r="A124" s="8"/>
+      <c r="B124" s="8"/>
+      <c r="C124" s="8"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="11"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="10"/>
+      <c r="S124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="C125" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J125" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="6"/>
-      <c r="R125" s="7"/>
-      <c r="S125" s="7"/>
-      <c r="T125" s="7"/>
-      <c r="U125" s="7"/>
-      <c r="V125" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O125" s="4" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="C126" s="4" t="n">
         <v>2013</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>608</v>
+        <v>619</v>
       </c>
       <c r="J126" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P126" s="5"/>
-      <c r="Q126" s="6"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7"/>
-      <c r="T126" s="7"/>
-      <c r="U126" s="7"/>
-      <c r="V126" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O126" s="4" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="C127" s="4" t="n">
         <v>2019</v>
@@ -7802,372 +7066,357 @@
         <v>79</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P127" s="5"/>
-      <c r="Q127" s="6"/>
-      <c r="R127" s="7"/>
-      <c r="S127" s="7"/>
-      <c r="T127" s="7"/>
-      <c r="U127" s="7"/>
-      <c r="V127" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O127" s="4" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="4" t="s">
-        <v>610</v>
+        <v>623</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C128" s="4" t="n">
         <v>2007</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J128" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P128" s="5"/>
-      <c r="Q128" s="6"/>
-      <c r="R128" s="7"/>
-      <c r="S128" s="7"/>
-      <c r="T128" s="7"/>
-      <c r="U128" s="7"/>
-      <c r="V128" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>625</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="4" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C129" s="4" t="n">
         <v>2008</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="6"/>
-      <c r="R129" s="7"/>
-      <c r="S129" s="7"/>
-      <c r="T129" s="7"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>627</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="4" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C130" s="4" t="n">
         <v>2010</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="6"/>
-      <c r="R130" s="7"/>
-      <c r="S130" s="7"/>
-      <c r="T130" s="7"/>
-      <c r="U130" s="7"/>
-      <c r="V130" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O130" s="4" t="s">
+        <v>629</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="B131" s="44" t="s">
-        <v>615</v>
+        <v>630</v>
+      </c>
+      <c r="B131" s="39" t="s">
+        <v>631</v>
       </c>
       <c r="C131" s="4" t="n">
         <v>2011</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>616</v>
+        <v>632</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>79</v>
       </c>
       <c r="M131" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R131" s="7"/>
-      <c r="S131" s="7"/>
-      <c r="T131" s="7"/>
-      <c r="U131" s="7"/>
-      <c r="V131" s="7"/>
+        <v>127</v>
+      </c>
+      <c r="O131" s="4" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="39" t="s">
-        <v>617</v>
-      </c>
-      <c r="B132" s="45" t="s">
-        <v>618</v>
+      <c r="A132" s="35" t="s">
+        <v>634</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>635</v>
       </c>
       <c r="C132" s="4" t="n">
         <v>2014</v>
       </c>
-      <c r="R132" s="7"/>
-      <c r="S132" s="7"/>
-      <c r="T132" s="7"/>
-      <c r="U132" s="7"/>
-      <c r="V132" s="7"/>
+      <c r="O132" s="4" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="11"/>
-      <c r="D133" s="13"/>
-      <c r="E133" s="13"/>
-      <c r="F133" s="13"/>
-      <c r="G133" s="13"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="13"/>
-      <c r="J133" s="13"/>
-      <c r="K133" s="13"/>
-      <c r="L133" s="13"/>
-      <c r="M133" s="13"/>
-      <c r="N133" s="13"/>
-      <c r="O133" s="13"/>
-      <c r="P133" s="46"/>
-      <c r="Q133" s="15"/>
-      <c r="R133" s="13"/>
-      <c r="S133" s="13"/>
-      <c r="T133" s="7"/>
-      <c r="U133" s="7"/>
-      <c r="V133" s="7"/>
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="41"/>
+      <c r="Q133" s="12"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="4" t="s">
-        <v>619</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>620</v>
+        <v>637</v>
+      </c>
+      <c r="B134" s="18" t="s">
+        <v>638</v>
       </c>
       <c r="C134" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="D134" s="8"/>
+      <c r="D134" s="5"/>
       <c r="E134" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J134" s="4" t="s">
         <v>79</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N134" s="4"/>
-      <c r="O134" s="4"/>
-      <c r="P134" s="47"/>
+      <c r="O134" s="4" t="s">
+        <v>641</v>
+      </c>
+      <c r="P134" s="42"/>
     </row>
     <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="4" t="s">
-        <v>623</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>624</v>
+        <v>642</v>
+      </c>
+      <c r="B135" s="18" t="s">
+        <v>643</v>
       </c>
       <c r="C135" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="D135" s="8"/>
+      <c r="D135" s="5"/>
       <c r="E135" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="G135" s="4" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N135" s="4"/>
-      <c r="O135" s="48"/>
+      <c r="O135" s="43" t="s">
+        <v>649</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="4" t="s">
-        <v>630</v>
-      </c>
-      <c r="B136" s="21" t="s">
-        <v>631</v>
+        <v>650</v>
+      </c>
+      <c r="B136" s="18" t="s">
+        <v>651</v>
       </c>
       <c r="C136" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="D136" s="8"/>
+      <c r="D136" s="5"/>
       <c r="E136" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="G136" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="H136" s="19" t="s">
-        <v>634</v>
+        <v>653</v>
+      </c>
+      <c r="H136" s="16" t="s">
+        <v>654</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J136" s="4" t="s">
         <v>70</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="M136" s="4" t="s">
         <v>90</v>
       </c>
       <c r="N136" s="4"/>
-      <c r="O136" s="4"/>
-      <c r="P136" s="47"/>
+      <c r="O136" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="P136" s="42"/>
     </row>
     <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="11"/>
-      <c r="D137" s="13"/>
-      <c r="E137" s="13"/>
-      <c r="F137" s="13"/>
-      <c r="G137" s="13"/>
-      <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
-      <c r="K137" s="13"/>
-      <c r="L137" s="13"/>
-      <c r="M137" s="13"/>
-      <c r="N137" s="13"/>
-      <c r="O137" s="49"/>
-      <c r="P137" s="46"/>
-      <c r="Q137" s="15"/>
-      <c r="R137" s="13"/>
-      <c r="S137" s="13"/>
+      <c r="A137" s="8"/>
+      <c r="B137" s="8"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="10"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="41"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="10"/>
+      <c r="S137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>636</v>
+        <v>656</v>
+      </c>
+      <c r="B138" s="18" t="s">
+        <v>657</v>
       </c>
       <c r="C138" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="D138" s="8"/>
+      <c r="D138" s="5"/>
       <c r="E138" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>637</v>
-      </c>
-      <c r="G138" s="50" t="s">
-        <v>638</v>
+        <v>658</v>
+      </c>
+      <c r="G138" s="44" t="s">
+        <v>659</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K138" s="4" t="s">
-        <v>639</v>
+        <v>660</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>640</v>
+        <v>661</v>
       </c>
       <c r="M138" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N138" s="4"/>
-      <c r="O138" s="4"/>
-      <c r="P138" s="47"/>
+      <c r="O138" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="P138" s="42"/>
     </row>
     <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="4" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="C139" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="D139" s="8"/>
+      <c r="D139" s="5"/>
       <c r="E139" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="G139" s="4" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>93</v>
@@ -8176,40 +7425,42 @@
         <v>79</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
       <c r="M139" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="47"/>
+      <c r="O139" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="P139" s="42"/>
     </row>
     <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="4" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="C140" s="4" t="n">
         <v>2018</v>
       </c>
-      <c r="D140" s="8"/>
+      <c r="D140" s="5"/>
       <c r="E140" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>647</v>
+        <v>670</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>89</v>
@@ -8218,99 +7469,103 @@
         <v>69</v>
       </c>
       <c r="K140" s="4" t="s">
-        <v>648</v>
+        <v>671</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="M140" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N140" s="4"/>
-      <c r="O140" s="4"/>
+      <c r="O140" s="4" t="s">
+        <v>673</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="4" t="s">
-        <v>650</v>
+        <v>674</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="C141" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="D141" s="8"/>
+      <c r="D141" s="5"/>
       <c r="E141" s="4" t="s">
         <v>89</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>651</v>
+        <v>675</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>652</v>
+        <v>676</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>653</v>
+        <v>677</v>
       </c>
       <c r="I141" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J141" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="J141" s="4" t="s">
-        <v>141</v>
-      </c>
       <c r="K141" s="4" t="s">
-        <v>654</v>
+        <v>678</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>655</v>
+        <v>679</v>
       </c>
       <c r="M141" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="47"/>
+      <c r="O141" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="P141" s="42"/>
     </row>
     <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A142" s="11"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="11"/>
-      <c r="D142" s="13"/>
-      <c r="E142" s="13"/>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-      <c r="I142" s="13"/>
-      <c r="J142" s="13"/>
-      <c r="K142" s="13"/>
-      <c r="L142" s="13"/>
-      <c r="M142" s="13"/>
-      <c r="N142" s="13"/>
-      <c r="O142" s="49"/>
-      <c r="P142" s="46"/>
-      <c r="Q142" s="15"/>
-      <c r="R142" s="13"/>
-      <c r="S142" s="13"/>
+      <c r="A142" s="8"/>
+      <c r="B142" s="8"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="10"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="41"/>
+      <c r="Q142" s="12"/>
+      <c r="R142" s="10"/>
+      <c r="S142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="4" t="s">
-        <v>656</v>
+        <v>681</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C143" s="4" t="n">
         <v>2007</v>
       </c>
-      <c r="D143" s="8"/>
+      <c r="D143" s="5"/>
       <c r="E143" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="G143" s="4" t="s">
-        <v>658</v>
+        <v>683</v>
       </c>
       <c r="H143" s="4" t="s">
         <v>28</v>
@@ -8322,37 +7577,39 @@
         <v>50</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>659</v>
+        <v>684</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>660</v>
+        <v>685</v>
       </c>
       <c r="M143" s="4" t="s">
         <v>71</v>
       </c>
       <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="47"/>
+      <c r="O143" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="P143" s="42"/>
     </row>
     <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="4" t="s">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C144" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="D144" s="8"/>
+      <c r="D144" s="5"/>
       <c r="E144" s="4" t="s">
         <v>50</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>657</v>
+        <v>682</v>
       </c>
       <c r="G144" s="4" t="s">
-        <v>662</v>
+        <v>688</v>
       </c>
       <c r="H144" s="4" t="s">
         <v>28</v>
@@ -8364,99 +7621,101 @@
         <v>70</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>664</v>
+        <v>690</v>
       </c>
       <c r="M144" s="4" t="s">
         <v>71</v>
       </c>
       <c r="N144" s="4"/>
-      <c r="O144" s="48"/>
-      <c r="P144" s="47"/>
+      <c r="O144" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="P144" s="42"/>
     </row>
     <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A145" s="11"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="23"/>
-      <c r="E145" s="11"/>
-      <c r="F145" s="11"/>
-      <c r="G145" s="11"/>
-      <c r="H145" s="11"/>
-      <c r="I145" s="11"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="11"/>
-      <c r="L145" s="11"/>
-      <c r="M145" s="11"/>
-      <c r="N145" s="11"/>
-      <c r="O145" s="51"/>
-      <c r="P145" s="46"/>
-      <c r="Q145" s="15"/>
-      <c r="R145" s="13"/>
-      <c r="S145" s="13"/>
+      <c r="A145" s="8"/>
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="20"/>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="45"/>
+      <c r="P145" s="41"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="10"/>
+      <c r="S145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="4" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="C146" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="D146" s="8"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="4" t="s">
         <v>93</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="H146" s="4" t="s">
         <v>28</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="J146" s="4" t="s">
         <v>79</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N146" s="4"/>
-      <c r="O146" s="48"/>
+      <c r="O146" s="46"/>
     </row>
     <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="4" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="C147" s="4" t="n">
         <v>2011</v>
       </c>
-      <c r="D147" s="8"/>
+      <c r="D147" s="5"/>
       <c r="E147" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="H147" s="4" t="s">
         <v>71</v>
@@ -8468,161 +7727,161 @@
         <v>79</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N147" s="4"/>
-      <c r="O147" s="48"/>
+      <c r="O147" s="46"/>
     </row>
     <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="4" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C148" s="4" t="n">
         <v>2015</v>
       </c>
-      <c r="D148" s="8"/>
+      <c r="D148" s="5"/>
       <c r="E148" s="4" t="s">
         <v>79</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>89</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="4" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C149" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="D149" s="8"/>
+      <c r="D149" s="5"/>
       <c r="E149" s="4" t="s">
         <v>70</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="J149" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="J149" s="34" t="s">
         <v>93</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="4" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C150" s="4" t="n">
         <v>2017</v>
       </c>
-      <c r="J150" s="52"/>
+      <c r="J150" s="47"/>
     </row>
     <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="4" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C151" s="4" t="n">
         <v>2008</v>
       </c>
-      <c r="J151" s="52"/>
+      <c r="J151" s="47"/>
     </row>
     <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="4" t="s">
-        <v>689</v>
+        <v>716</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
       <c r="C152" s="4" t="n">
         <v>2019</v>
       </c>
-      <c r="J152" s="52"/>
+      <c r="J152" s="47"/>
     </row>
     <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="4" t="s">
-        <v>691</v>
+        <v>718</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
       <c r="C153" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="J153" s="52"/>
+      <c r="J153" s="47"/>
     </row>
     <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="4" t="s">
-        <v>692</v>
+        <v>719</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
       <c r="C154" s="4" t="n">
         <v>2021</v>
       </c>
-      <c r="J154" s="52"/>
+      <c r="J154" s="47"/>
     </row>
     <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="B155" s="21" t="s">
-        <v>694</v>
+        <v>720</v>
+      </c>
+      <c r="B155" s="18" t="s">
+        <v>721</v>
       </c>
       <c r="C155" s="4" t="n">
         <v>2018</v>
@@ -8630,87 +7889,87 @@
     </row>
     <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="4" t="s">
-        <v>695</v>
+        <v>722</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>696</v>
+        <v>723</v>
       </c>
       <c r="C156" s="4" t="n">
         <v>1993</v>
       </c>
-      <c r="D156" s="8"/>
+      <c r="D156" s="5"/>
       <c r="E156" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>697</v>
+        <v>724</v>
       </c>
       <c r="G156" s="4" t="s">
-        <v>698</v>
+        <v>725</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>699</v>
+        <v>726</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>700</v>
+        <v>727</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>36</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>697</v>
+        <v>728</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="M156" s="4" t="s">
         <v>23</v>
       </c>
       <c r="N156" s="4"/>
-      <c r="O156" s="40" t="s">
-        <v>702</v>
-      </c>
-      <c r="P156" s="53" t="n">
+      <c r="O156" s="36" t="s">
+        <v>730</v>
+      </c>
+      <c r="P156" s="48" t="n">
         <v>120</v>
       </c>
-      <c r="Q156" s="54" t="s">
-        <v>703</v>
+      <c r="Q156" s="49" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="B157" s="21" t="s">
-        <v>705</v>
+        <v>732</v>
+      </c>
+      <c r="B157" s="18" t="s">
+        <v>733</v>
       </c>
       <c r="C157" s="4" t="n">
         <v>2016</v>
       </c>
-      <c r="O157" s="55" t="s">
-        <v>706</v>
+      <c r="O157" s="50" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="4" t="s">
-        <v>707</v>
-      </c>
-      <c r="B158" s="21" t="s">
-        <v>705</v>
+        <v>735</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>733</v>
       </c>
       <c r="C158" s="4" t="n">
         <v>2020</v>
       </c>
-      <c r="O158" s="55" t="s">
-        <v>708</v>
+      <c r="O158" s="50" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="4" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="C159" s="4" t="n">
         <v>2021</v>
@@ -8718,10 +7977,10 @@
     </row>
     <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="4" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="C160" s="4" t="n">
         <v>2016</v>
@@ -8729,10 +7988,10 @@
     </row>
     <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="4" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="C161" s="4" t="n">
         <v>2018</v>
@@ -8740,10 +7999,10 @@
     </row>
     <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="4" t="s">
-        <v>714</v>
-      </c>
-      <c r="B162" s="44" t="s">
-        <v>715</v>
+        <v>742</v>
+      </c>
+      <c r="B162" s="39" t="s">
+        <v>743</v>
       </c>
       <c r="C162" s="4" t="n">
         <v>2018</v>
@@ -8751,10 +8010,10 @@
     </row>
     <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="4" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
       <c r="C163" s="4" t="n">
         <v>2015</v>
@@ -8762,10 +8021,10 @@
     </row>
     <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="4" t="s">
-        <v>718</v>
-      </c>
-      <c r="B164" s="44" t="s">
-        <v>719</v>
+        <v>746</v>
+      </c>
+      <c r="B164" s="39" t="s">
+        <v>747</v>
       </c>
       <c r="C164" s="4" t="n">
         <v>1994</v>
@@ -8773,10 +8032,10 @@
     </row>
     <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="4" t="s">
-        <v>720</v>
-      </c>
-      <c r="B165" s="44" t="s">
-        <v>719</v>
+        <v>748</v>
+      </c>
+      <c r="B165" s="39" t="s">
+        <v>747</v>
       </c>
       <c r="C165" s="4" t="n">
         <v>1997</v>
@@ -8784,10 +8043,10 @@
     </row>
     <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="4" t="s">
-        <v>721</v>
-      </c>
-      <c r="B166" s="44" t="s">
-        <v>719</v>
+        <v>749</v>
+      </c>
+      <c r="B166" s="39" t="s">
+        <v>747</v>
       </c>
       <c r="C166" s="4" t="n">
         <v>1998</v>
@@ -8795,10 +8054,10 @@
     </row>
     <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="B167" s="56" t="s">
-        <v>723</v>
+        <v>750</v>
+      </c>
+      <c r="B167" s="51" t="s">
+        <v>751</v>
       </c>
       <c r="C167" s="4" t="n">
         <v>1999</v>
@@ -8806,10 +8065,10 @@
     </row>
     <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="4" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="C168" s="4" t="n">
         <v>2003</v>
@@ -8817,10 +8076,10 @@
     </row>
     <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="4" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="C169" s="4" t="n">
         <v>2005</v>
@@ -8828,10 +8087,10 @@
     </row>
     <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="4" t="s">
-        <v>727</v>
-      </c>
-      <c r="B170" s="0" t="s">
-        <v>728</v>
+        <v>755</v>
+      </c>
+      <c r="B170" s="52" t="s">
+        <v>756</v>
       </c>
       <c r="C170" s="4" t="n">
         <v>2006</v>
@@ -8839,10 +8098,10 @@
     </row>
     <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="B171" s="57" t="s">
-        <v>730</v>
+        <v>757</v>
+      </c>
+      <c r="B171" s="53" t="s">
+        <v>758</v>
       </c>
       <c r="C171" s="4" t="n">
         <v>2008</v>
@@ -8850,10 +8109,10 @@
     </row>
     <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="4" t="s">
-        <v>731</v>
-      </c>
-      <c r="B172" s="58" t="s">
-        <v>732</v>
+        <v>759</v>
+      </c>
+      <c r="B172" s="54" t="s">
+        <v>760</v>
       </c>
       <c r="C172" s="4" t="n">
         <v>2013</v>
@@ -8861,10 +8120,10 @@
     </row>
     <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="4" t="s">
-        <v>733</v>
+        <v>761</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>734</v>
+        <v>762</v>
       </c>
       <c r="C173" s="4" t="n">
         <v>2014</v>
@@ -8872,10 +8131,10 @@
     </row>
     <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="4" t="s">
-        <v>735</v>
-      </c>
-      <c r="B174" s="59" t="s">
-        <v>736</v>
+        <v>763</v>
+      </c>
+      <c r="B174" s="55" t="s">
+        <v>764</v>
       </c>
       <c r="C174" s="4" t="n">
         <v>2016</v>
@@ -8883,10 +8142,10 @@
     </row>
     <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="4" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="B175" s="4" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="C175" s="4" t="n">
         <v>2020</v>
@@ -8894,10 +8153,10 @@
     </row>
     <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="4" t="s">
-        <v>739</v>
+        <v>767</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>734</v>
+        <v>762</v>
       </c>
       <c r="C176" s="4" t="n">
         <v>2017</v>
@@ -8905,10 +8164,10 @@
     </row>
     <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C177" s="4" t="n">
         <v>2009</v>
@@ -8916,10 +8175,10 @@
     </row>
     <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="4" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C178" s="4" t="n">
         <v>2019</v>
@@ -8927,10 +8186,10 @@
     </row>
     <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="4" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="C179" s="4" t="n">
         <v>2006</v>
@@ -8938,10 +8197,10 @@
     </row>
     <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="4" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="C180" s="4" t="n">
         <v>2002</v>
@@ -8949,10 +8208,10 @@
     </row>
     <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="4" t="s">
-        <v>746</v>
+        <v>774</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="C181" s="4" t="n">
         <v>2002</v>
@@ -8960,10 +8219,10 @@
     </row>
     <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="4" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="C182" s="4" t="n">
         <v>2003</v>
@@ -8971,10 +8230,10 @@
     </row>
     <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="4" t="s">
-        <v>750</v>
-      </c>
-      <c r="B183" s="39" t="s">
-        <v>751</v>
+        <v>778</v>
+      </c>
+      <c r="B183" s="35" t="s">
+        <v>779</v>
       </c>
       <c r="C183" s="4" t="n">
         <v>2004</v>
@@ -8982,10 +8241,10 @@
     </row>
     <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="4" t="s">
-        <v>752</v>
+        <v>780</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="C184" s="4" t="n">
         <v>2007</v>
@@ -8993,10 +8252,10 @@
     </row>
     <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="4" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
       <c r="C185" s="4" t="n">
         <v>2010</v>
@@ -9004,10 +8263,10 @@
     </row>
     <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="4" t="s">
-        <v>755</v>
+        <v>783</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
       <c r="C186" s="4" t="n">
         <v>2012</v>
@@ -9015,10 +8274,10 @@
     </row>
     <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="4" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C187" s="4" t="n">
         <v>2020</v>
@@ -9026,10 +8285,10 @@
     </row>
     <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="4" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>759</v>
+        <v>787</v>
       </c>
       <c r="C188" s="4" t="n">
         <v>2008</v>
@@ -9037,10 +8296,10 @@
     </row>
     <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="4" t="s">
-        <v>760</v>
+        <v>788</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="C189" s="4" t="n">
         <v>2010</v>
@@ -9048,10 +8307,10 @@
     </row>
     <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="4" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="C190" s="4" t="n">
         <v>2012</v>
@@ -9059,10 +8318,10 @@
     </row>
     <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="4" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="C191" s="4" t="n">
         <v>2017</v>
@@ -9070,10 +8329,10 @@
     </row>
     <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="4" t="s">
-        <v>764</v>
+        <v>792</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="C192" s="4" t="n">
         <v>2008</v>
@@ -9081,10 +8340,10 @@
     </row>
     <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="4" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="C193" s="4" t="n">
         <v>2012</v>
@@ -9092,10 +8351,10 @@
     </row>
     <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="4" t="s">
-        <v>767</v>
+        <v>795</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>768</v>
+        <v>796</v>
       </c>
       <c r="C194" s="4" t="n">
         <v>2016</v>
@@ -9103,10 +8362,10 @@
     </row>
     <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="4" t="s">
-        <v>769</v>
-      </c>
-      <c r="B195" s="58" t="s">
-        <v>770</v>
+        <v>797</v>
+      </c>
+      <c r="B195" s="54" t="s">
+        <v>798</v>
       </c>
       <c r="C195" s="4" t="n">
         <v>2005</v>
@@ -9114,10 +8373,10 @@
     </row>
     <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="4" t="s">
-        <v>771</v>
+        <v>799</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C196" s="4" t="n">
         <v>2002</v>
@@ -9125,21 +8384,21 @@
     </row>
     <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="4" t="s">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C197" s="4" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="60" t="s">
-        <v>773</v>
+      <c r="A198" s="54" t="s">
+        <v>801</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C198" s="4" t="n">
         <v>2006</v>
@@ -9147,10 +8406,10 @@
     </row>
     <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="4" t="s">
-        <v>774</v>
+        <v>802</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="C199" s="4" t="n">
         <v>2016</v>
@@ -9158,32 +8417,32 @@
     </row>
     <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="4" t="s">
-        <v>775</v>
-      </c>
-      <c r="B200" s="60" t="s">
-        <v>776</v>
-      </c>
-      <c r="C200" s="58" t="n">
+        <v>803</v>
+      </c>
+      <c r="B200" s="54" t="s">
+        <v>804</v>
+      </c>
+      <c r="C200" s="54" t="n">
         <v>2004</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="4" t="s">
-        <v>777</v>
-      </c>
-      <c r="B201" s="60" t="s">
-        <v>776</v>
-      </c>
-      <c r="C201" s="58" t="n">
+        <v>805</v>
+      </c>
+      <c r="B201" s="54" t="s">
+        <v>804</v>
+      </c>
+      <c r="C201" s="54" t="n">
         <v>2005</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="4" t="s">
-        <v>775</v>
+        <v>803</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C202" s="4" t="n">
         <v>2015</v>
@@ -9191,10 +8450,10 @@
     </row>
     <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="4" t="s">
-        <v>777</v>
+        <v>805</v>
       </c>
       <c r="B203" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C203" s="4" t="n">
         <v>2017</v>
@@ -9202,10 +8461,10 @@
     </row>
     <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="4" t="s">
-        <v>778</v>
+        <v>806</v>
       </c>
       <c r="B204" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C204" s="4" t="n">
         <v>2007</v>
@@ -9213,10 +8472,10 @@
     </row>
     <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="4" t="s">
-        <v>779</v>
+        <v>807</v>
       </c>
       <c r="B205" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C205" s="4" t="n">
         <v>2009</v>
@@ -9224,10 +8483,10 @@
     </row>
     <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="4" t="s">
-        <v>780</v>
+        <v>808</v>
       </c>
       <c r="B206" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C206" s="4" t="n">
         <v>2012</v>
@@ -9235,10 +8494,10 @@
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="4" t="s">
-        <v>781</v>
+        <v>809</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C207" s="4" t="n">
         <v>2013</v>
@@ -9246,10 +8505,10 @@
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="4" t="s">
-        <v>782</v>
+        <v>810</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>783</v>
+        <v>811</v>
       </c>
       <c r="C208" s="4" t="n">
         <v>2015</v>
@@ -9257,10 +8516,10 @@
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="4" t="s">
-        <v>784</v>
+        <v>812</v>
       </c>
       <c r="B209" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C209" s="4" t="n">
         <v>2014</v>
@@ -9268,10 +8527,10 @@
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="B210" s="58" t="s">
-        <v>786</v>
+        <v>813</v>
+      </c>
+      <c r="B210" s="54" t="s">
+        <v>814</v>
       </c>
       <c r="C210" s="4" t="n">
         <v>2015</v>
@@ -9279,10 +8538,10 @@
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="4" t="s">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="B211" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C211" s="4" t="n">
         <v>2017</v>
@@ -9290,10 +8549,10 @@
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="4" t="s">
-        <v>788</v>
-      </c>
-      <c r="B212" s="58" t="s">
-        <v>786</v>
+        <v>816</v>
+      </c>
+      <c r="B212" s="54" t="s">
+        <v>814</v>
       </c>
       <c r="C212" s="4" t="n">
         <v>2018</v>
@@ -9301,10 +8560,10 @@
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="4" t="s">
-        <v>789</v>
+        <v>817</v>
       </c>
       <c r="B213" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C213" s="4" t="n">
         <v>2020</v>
@@ -9312,10 +8571,10 @@
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="4" t="s">
-        <v>790</v>
+        <v>818</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C214" s="4" t="n">
         <v>2010</v>
@@ -9323,87 +8582,87 @@
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="4" t="s">
-        <v>791</v>
+        <v>819</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C215" s="4" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="58" t="s">
-        <v>792</v>
+      <c r="A216" s="54" t="s">
+        <v>820</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="C216" s="4" t="n">
         <v>2009</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="61" t="s">
-        <v>794</v>
+      <c r="A217" s="56" t="s">
+        <v>822</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="C217" s="4" t="n">
         <v>2011</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="58" t="s">
-        <v>795</v>
+      <c r="A218" s="54" t="s">
+        <v>823</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="C218" s="4" t="n">
         <v>2013</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="61" t="s">
-        <v>796</v>
+      <c r="A219" s="56" t="s">
+        <v>824</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="C219" s="4" t="n">
         <v>2015</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="61" t="s">
-        <v>797</v>
+      <c r="A220" s="56" t="s">
+        <v>825</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="C220" s="4" t="n">
         <v>2022</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="58" t="s">
-        <v>798</v>
+      <c r="A221" s="54" t="s">
+        <v>826</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="C221" s="4" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="61" t="s">
-        <v>799</v>
+      <c r="A222" s="56" t="s">
+        <v>827</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="C222" s="4" t="n">
         <v>2020</v>
@@ -9411,10 +8670,10 @@
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="4" t="s">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C223" s="4" t="n">
         <v>2021</v>
@@ -9422,10 +8681,10 @@
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="4" t="s">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="C224" s="4" t="n">
         <v>2021</v>
@@ -9433,20 +8692,44 @@
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="4" t="s">
-        <v>803</v>
+        <v>831</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>615</v>
+        <v>631</v>
       </c>
       <c r="C225" s="4" t="n">
         <v>2013</v>
       </c>
-      <c r="P225" s="5" t="n">
+      <c r="P225" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="Q225" s="6" t="s">
-        <v>804</v>
-      </c>
+      <c r="Q225" s="3" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="57"/>
+      <c r="B226" s="57"/>
+      <c r="C226" s="57"/>
+      <c r="D226" s="57"/>
+      <c r="E226" s="57"/>
+      <c r="F226" s="57"/>
+      <c r="G226" s="57"/>
+      <c r="H226" s="57"/>
+      <c r="I226" s="57"/>
+      <c r="J226" s="57"/>
+      <c r="K226" s="57"/>
+      <c r="L226" s="57"/>
+      <c r="M226" s="57"/>
+      <c r="N226" s="57"/>
+      <c r="O226" s="57"/>
+      <c r="P226" s="58"/>
+      <c r="Q226" s="59"/>
+      <c r="R226" s="57"/>
+      <c r="S226" s="57"/>
+      <c r="T226" s="57"/>
+      <c r="U226" s="57"/>
+      <c r="V226" s="57"/>
     </row>
   </sheetData>
   <hyperlinks>
